--- a/data/trans_camb/P30_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P30_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 11,32</t>
+          <t>-6,1; 13,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 8,39</t>
+          <t>-5,94; 13,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 9,58</t>
+          <t>-6,18; 15,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 6,07</t>
+          <t>-4,58; 11,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 8,62</t>
+          <t>-6,5; 8,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 5,82</t>
+          <t>-5,15; 9,83</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 9,4</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 7,96</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 9,7</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19,85%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 62,66</t>
+          <t>-23,36; 77,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 46,79</t>
+          <t>-22,47; 77,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 73,54</t>
+          <t>-24,48; 90,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 43,28</t>
+          <t>-26,71; 98,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 51,34</t>
+          <t>-38,28; 77,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 34,63</t>
+          <t>-30,79; 93,32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-13,31; 62,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-19,42; 52,52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-13,88; 66,39</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 14,19</t>
+          <t>-9,17; 9,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 15,95</t>
+          <t>-7,77; 13,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 13,43</t>
+          <t>-9,86; 10,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 7,94</t>
+          <t>-6,13; 13,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 10,65</t>
+          <t>-16,44; 1,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 8,85</t>
+          <t>-8,29; 17,74</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 9,08</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 4,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 9,84</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>-33,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>10,79%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-12,4%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 86,03</t>
+          <t>-39,48; 75,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,91; 95,56</t>
+          <t>-34,23; 104,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 76,38</t>
+          <t>-41,91; 74,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,21; 45,94</t>
+          <t>-23,17; 73,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 58,42</t>
+          <t>-60,38; 9,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 46,79</t>
+          <t>-33,04; 95,88</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-19,39; 51,04</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-39,39; 27,51</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-25,1; 53,49</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>6,49</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,07</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 19,18</t>
+          <t>-27,31; 20,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 12,81</t>
+          <t>-26,55; 19,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 16,58</t>
+          <t>-21,81; 30,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 15,13</t>
+          <t>-21,59; 15,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 14,66</t>
+          <t>-18,12; 20,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 9,99</t>
+          <t>-14,94; 26,39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-16,4; 11,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; 12,21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-10,11; 23,21</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>-20,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-14,2%</t>
+          <t>-26,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>-12,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>30,97%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-16,01%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-10,67%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,13; 204,24</t>
+          <t>-88,7; 317,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,66; 155,77</t>
+          <t>-86,18; 426,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,77; 189,61</t>
+          <t>-72,38; 485,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 188,13</t>
+          <t>-73,63; 166,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 138,76</t>
+          <t>-65,68; 205,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,25; 92,55</t>
+          <t>-50,39; 222,07</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-62,68; 131,58</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-63,4; 110,25</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-41,62; 200,68</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 10,25</t>
+          <t>-5,0; 8,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 8,52</t>
+          <t>-5,1; 8,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 9,29</t>
+          <t>-4,2; 10,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 5,16</t>
+          <t>-2,62; 9,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,75</t>
+          <t>-7,95; 2,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,12</t>
+          <t>-3,29; 10,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 6,54</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 4,16</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 8,22</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>-14,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-1,39%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14,62%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 55,25</t>
+          <t>-22,46; 48,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 46,46</t>
+          <t>-22,03; 50,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 58,14</t>
+          <t>-19,26; 62,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 32,38</t>
+          <t>-13,08; 59,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 44,43</t>
+          <t>-38,07; 19,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 28,36</t>
+          <t>-16,19; 68,31</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-11,4; 39,1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-21,77; 24,46</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 46,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
